--- a/Summary/evaluation.xlsx
+++ b/Summary/evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Desktop/26/Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618A1EE4-6B05-0E46-963B-6447FEE50FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B219D2-98A1-8948-9892-623906950AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{B51D20BF-EB33-1743-945E-A2FBF7C9362B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" xr2:uid="{B51D20BF-EB33-1743-945E-A2FBF7C9362B}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="18">
   <si>
     <t>Binary Accuracy</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>Overall Accuracy - ResNet152V2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overall Accuracy - DenseNet201</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -380,6 +384,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -389,14 +471,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -407,27 +489,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -436,63 +497,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C92489-CCD1-4B45-8E57-54AE9650C816}">
   <dimension ref="B1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -823,27 +827,27 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1"/>
     <row r="2" spans="2:12" ht="17" thickBot="1">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:12" ht="17" thickBot="1">
-      <c r="B3" s="25"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2">
@@ -857,7 +861,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="17" thickBot="1">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4">
@@ -871,17 +875,17 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="43">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="31">
         <v>0.89</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="17" thickBot="1">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2">
@@ -890,13 +894,13 @@
       <c r="D7" s="2">
         <v>0.91</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="31">
         <v>0.85</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="17" thickBot="1">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="4">
@@ -915,148 +919,148 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:12" ht="17" thickBot="1">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="G10" s="22" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="G10" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="2:12" ht="17" thickBot="1">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>0.85</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>0.68</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>0.76</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="7">
         <v>0.94</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="7">
         <v>0.76</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="8">
         <v>0.84</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
         <v>0.12</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="8">
         <v>0.22</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="7">
         <v>0.5</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="7">
         <v>0.44</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="8">
         <v>0.47</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="7">
         <v>0</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="8">
         <v>0</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="7">
         <v>0.09</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="8">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>0.59</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="7">
         <v>0.69</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="8">
         <v>0.64</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="7">
         <v>0.73</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="8">
         <v>0.64</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="2">
@@ -1068,7 +1072,7 @@
       <c r="E16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H16" s="2">
@@ -1082,7 +1086,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="4">
@@ -1094,7 +1098,7 @@
       <c r="E17" s="5">
         <v>0.4</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="4">
@@ -1108,25 +1112,25 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="43">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="31">
         <v>0.62</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="43">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="31">
         <v>0.64</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="17" thickBot="1">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="2">
@@ -1135,10 +1139,10 @@
       <c r="D19" s="2">
         <v>0.42</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="31">
         <v>0.34</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="15" t="s">
         <v>4</v>
       </c>
       <c r="H19" s="2">
@@ -1147,12 +1151,12 @@
       <c r="I19" s="2">
         <v>0.51</v>
       </c>
-      <c r="J19" s="43">
+      <c r="J19" s="31">
         <v>0.41</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="4">
@@ -1164,7 +1168,7 @@
       <c r="E20" s="5">
         <v>0.64</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="4">
@@ -1179,147 +1183,147 @@
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1"/>
     <row r="22" spans="2:10" ht="17" thickBot="1">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="G22" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+      <c r="G22" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" spans="2:10" ht="17" thickBot="1">
-      <c r="B23" s="33"/>
-      <c r="C23" s="38" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="38" t="s">
+      <c r="G23" s="24"/>
+      <c r="H23" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="39" t="s">
+      <c r="J23" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>0.73</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="7">
         <v>0.68</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="8">
         <v>0.71</v>
       </c>
-      <c r="G24" s="34" t="s">
+      <c r="G24" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="7">
         <v>0.79</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="7">
         <v>0.76</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="8">
         <v>0.77</v>
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="7">
         <v>0.5</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="7">
         <v>0.12</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="8">
         <v>0.2</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="7">
         <v>0.33</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="7">
         <v>0.44</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="8">
         <v>0.38</v>
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="7">
         <v>0</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="7">
         <v>0</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="8">
         <v>0</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="7">
         <v>0.04</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="7">
         <v>0.37</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="7">
         <v>0.69</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="8">
         <v>0.48</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="7">
         <v>0.51</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="8">
         <v>0.46</v>
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="2">
@@ -1331,7 +1335,7 @@
       <c r="E28" s="3">
         <v>0.93</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="25" t="s">
         <v>2</v>
       </c>
       <c r="H28" s="2">
@@ -1345,7 +1349,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="17" thickBot="1">
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="4">
@@ -1357,7 +1361,7 @@
       <c r="E29" s="5">
         <v>0.33</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="26" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="4">
@@ -1371,25 +1375,25 @@
       </c>
     </row>
     <row r="30" spans="2:10" ht="17" thickBot="1">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="43">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="31">
         <v>0.82</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="43">
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="31">
         <v>0.83</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="17" thickBot="1">
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="2">
@@ -1398,10 +1402,10 @@
       <c r="D31" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="31">
         <v>0.44</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="28" t="s">
         <v>4</v>
       </c>
       <c r="H31" s="2">
@@ -1410,12 +1414,12 @@
       <c r="I31" s="2">
         <v>0.66</v>
       </c>
-      <c r="J31" s="43">
+      <c r="J31" s="31">
         <v>0.48</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="17" thickBot="1">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="4">
@@ -1427,7 +1431,7 @@
       <c r="E32" s="5">
         <v>0.85</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="G32" s="27" t="s">
         <v>5</v>
       </c>
       <c r="H32" s="4">

--- a/Summary/evaluation.xlsx
+++ b/Summary/evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Desktop/26/Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B219D2-98A1-8948-9892-623906950AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B34EEC-B9CD-C24D-89FF-5EBC70BA0179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" xr2:uid="{B51D20BF-EB33-1743-945E-A2FBF7C9362B}"/>
   </bookViews>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C92489-CCD1-4B45-8E57-54AE9650C816}">
   <dimension ref="B1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
